--- a/Design/DesignSummary.xlsx
+++ b/Design/DesignSummary.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEAccount\source\repos\RocketShop3\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055099E9-B1BF-4F23-8D53-24CB416E8D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEAD7D1-D413-42C8-B685-2C807A7B5DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
   </bookViews>
   <sheets>
     <sheet name="Service List" sheetId="1" r:id="rId1"/>
+    <sheet name="Identity" sheetId="2" r:id="rId2"/>
+    <sheet name="HR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Project Name</t>
   </si>
@@ -118,6 +120,96 @@
   </si>
   <si>
     <t>DomainServices</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>A Centerized Login Project</t>
+  </si>
+  <si>
+    <t>User Management Service</t>
+  </si>
+  <si>
+    <t>A Retail Shop Service</t>
+  </si>
+  <si>
+    <t>A Repair Shop Service</t>
+  </si>
+  <si>
+    <t>Large Data Storage Service</t>
+  </si>
+  <si>
+    <t>DataWarehouse Management Service</t>
+  </si>
+  <si>
+    <t>A Central Configuration Services</t>
+  </si>
+  <si>
+    <t>AI Service</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Local Login</t>
+  </si>
+  <si>
+    <t>Google Login</t>
+  </si>
+  <si>
+    <t>View Current Profile</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Serve Token</t>
+  </si>
+  <si>
+    <t>Verify Token</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Logout Page</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>View Employee Data</t>
+  </si>
+  <si>
+    <t>Update Employee Data</t>
+  </si>
+  <si>
+    <t>Create Employee Data</t>
+  </si>
+  <si>
+    <t>Set Position And Salary</t>
+  </si>
+  <si>
+    <t>Set Resign</t>
+  </si>
+  <si>
+    <t>Serve Employee List</t>
+  </si>
+  <si>
+    <t>Reset Employee Password</t>
   </si>
 </sst>
 </file>
@@ -141,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,15 +241,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055641FE-1C82-4E61-84DA-D41366A93F16}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,183 +602,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -836,4 +975,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAAB002-04E4-4413-9456-BD4C67622E60}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA84D0C-6E4C-4594-95CC-75998F4903FE}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/DesignSummary.xlsx
+++ b/Design/DesignSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEAccount\source\repos\RocketShop3\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEAD7D1-D413-42C8-B685-2C807A7B5DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24ED84-BDAD-4F92-863B-5147D094CBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
   </bookViews>
   <sheets>
     <sheet name="Service List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Project Name</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Reset Employee Password</t>
+  </si>
+  <si>
+    <t>Set Users Role</t>
+  </si>
+  <si>
+    <t>List Permission</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,6 +262,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -272,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAAB002-04E4-4413-9456-BD4C67622E60}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,8 +1072,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA84D0C-6E4C-4594-95CC-75998F4903FE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1138,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/DesignSummary.xlsx
+++ b/Design/DesignSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEAccount\source\repos\RocketShop3\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RocketShop3\RocketShop3\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24ED84-BDAD-4F92-863B-5147D094CBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5ACBD-9A54-42B2-8D00-EF9FA9894206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{673D66F4-750F-4DF7-885A-B654FAA92070}"/>
   </bookViews>
   <sheets>
     <sheet name="Service List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Project Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Repair</t>
   </si>
   <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
     <t>Migration</t>
   </si>
   <si>
@@ -107,15 +104,6 @@
     <t>c#</t>
   </si>
   <si>
-    <t>Identity,Retail</t>
-  </si>
-  <si>
-    <t>Identity,Repair</t>
-  </si>
-  <si>
-    <t>Identity,Warehouse</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -216,6 +204,21 @@
   </si>
   <si>
     <t>List Permission</t>
+  </si>
+  <si>
+    <t>Identity,AuditLog</t>
+  </si>
+  <si>
+    <t>Identity,Retail,AuditLog</t>
+  </si>
+  <si>
+    <t>Identity,Repair,AuditLog</t>
+  </si>
+  <si>
+    <t>Warehouse,AuditLog</t>
+  </si>
+  <si>
+    <t>Identity,Warehouse,AuditLog</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,15 +609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055641FE-1C82-4E61-84DA-D41366A93F16}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,13 +643,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -657,16 +660,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,16 +677,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,84 +694,84 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,46 +780,46 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -998,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAAB002-04E4-4413-9456-BD4C67622E60}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1010,75 +1013,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1102,45 +1105,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
